--- a/statistics/Spearmans-matrix-plots/results/All-variables/correlations and p values-UPDATED.xlsx
+++ b/statistics/Spearmans-matrix-plots/results/All-variables/correlations and p values-UPDATED.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA28"/>
+  <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -466,30 +466,35 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>Inflammation</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>KidneyGSH</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>KidneyGSSG</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>KidneyTotalGSH</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>KidneyGSHGSSGRatio</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Kidney2GSHGSSGRatio</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>KidneyEhGSSG2GSH</t>
         </is>
@@ -560,21 +565,24 @@
         <v>-0.1003699068695785</v>
       </c>
       <c r="V2">
+        <v>-0.174134135469051</v>
+      </c>
+      <c r="W2">
         <v>-0.09543255562676524</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>-0.2643398713294653</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>-0.1089546589025438</v>
-      </c>
-      <c r="Y2">
-        <v>0.1716719671077754</v>
       </c>
       <c r="Z2">
         <v>0.1716719671077754</v>
       </c>
       <c r="AA2">
+        <v>0.1716719671077754</v>
+      </c>
+      <c r="AB2">
         <v>-0.07640776938761124</v>
       </c>
     </row>
@@ -643,21 +651,24 @@
         <v>-0.03436005777769197</v>
       </c>
       <c r="V3">
+        <v>-0.1656962533177042</v>
+      </c>
+      <c r="W3">
         <v>-0.1591426335039474</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>-0.1987952080157433</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>-0.1700495109113284</v>
-      </c>
-      <c r="Y3">
-        <v>0.09364236760453684</v>
       </c>
       <c r="Z3">
         <v>0.09364236760453684</v>
       </c>
       <c r="AA3">
+        <v>0.09364236760453684</v>
+      </c>
+      <c r="AB3">
         <v>0.005762191360871495</v>
       </c>
     </row>
@@ -726,21 +737,24 @@
         <v>-0.003616820058292077</v>
       </c>
       <c r="V4">
+        <v>0.08609847288324797</v>
+      </c>
+      <c r="W4">
         <v>0.07670133662989644</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>-0.07543911265993458</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>0.0727056175532355</v>
-      </c>
-      <c r="Y4">
-        <v>0.1272383496077271</v>
       </c>
       <c r="Z4">
         <v>0.1272383496077271</v>
       </c>
       <c r="AA4">
+        <v>0.1272383496077271</v>
+      </c>
+      <c r="AB4">
         <v>-0.1260631980570945</v>
       </c>
     </row>
@@ -809,21 +823,24 @@
         <v>-0.02174599354661533</v>
       </c>
       <c r="V5">
+        <v>0.05307975436287948</v>
+      </c>
+      <c r="W5">
         <v>-0.01490073422206828</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-0.1894596026927969</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>-0.02524424325637959</v>
-      </c>
-      <c r="Y5">
-        <v>0.1645412226692577</v>
       </c>
       <c r="Z5">
         <v>0.1645412226692577</v>
       </c>
       <c r="AA5">
+        <v>0.1645412226692577</v>
+      </c>
+      <c r="AB5">
         <v>-0.1094341536746082</v>
       </c>
     </row>
@@ -892,21 +909,24 @@
         <v>0.02260006323422168</v>
       </c>
       <c r="V6">
+        <v>0.06893311724680951</v>
+      </c>
+      <c r="W6">
         <v>0.08717354648309859</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>0.07072549864791562</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>0.09016995885482522</v>
-      </c>
-      <c r="Y6">
-        <v>-0.006316119886495727</v>
       </c>
       <c r="Z6">
         <v>-0.006316119886495727</v>
       </c>
       <c r="AA6">
+        <v>-0.006316119886495727</v>
+      </c>
+      <c r="AB6">
         <v>-0.03630417427699904</v>
       </c>
     </row>
@@ -975,21 +995,24 @@
         <v>-0.005288071124344837</v>
       </c>
       <c r="V7">
+        <v>-0.07727459993478918</v>
+      </c>
+      <c r="W7">
         <v>0.07121445498857891</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>0.003355491492366705</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>0.06704117126479425</v>
-      </c>
-      <c r="Y7">
-        <v>0.05935148474608827</v>
       </c>
       <c r="Z7">
         <v>0.05935148474608827</v>
       </c>
       <c r="AA7">
+        <v>0.05935148474608827</v>
+      </c>
+      <c r="AB7">
         <v>-0.07916312637738215</v>
       </c>
     </row>
@@ -1058,21 +1081,24 @@
         <v>0.01422785335066581</v>
       </c>
       <c r="V8">
+        <v>-0.1426249368398512</v>
+      </c>
+      <c r="W8">
         <v>-0.05387346334331043</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>-0.172437725721664</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>-0.06218769743763182</v>
-      </c>
-      <c r="Y8">
-        <v>0.1209731348451576</v>
       </c>
       <c r="Z8">
         <v>0.1209731348451576</v>
       </c>
       <c r="AA8">
+        <v>0.1209731348451576</v>
+      </c>
+      <c r="AB8">
         <v>-0.05025281406071956</v>
       </c>
     </row>
@@ -1141,21 +1167,24 @@
         <v>-0.03689157521930145</v>
       </c>
       <c r="V9">
+        <v>0.07115459891700728</v>
+      </c>
+      <c r="W9">
         <v>0.04785949280837311</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-0.1139161182689552</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>0.03921428804246685</v>
-      </c>
-      <c r="Y9">
-        <v>0.1514674888088493</v>
       </c>
       <c r="Z9">
         <v>0.1514674888088493</v>
       </c>
       <c r="AA9">
+        <v>0.1514674888088493</v>
+      </c>
+      <c r="AB9">
         <v>-0.1356767511585134</v>
       </c>
     </row>
@@ -1224,21 +1253,24 @@
         <v>0.1114740277005168</v>
       </c>
       <c r="V10">
+        <v>0.03774814027712423</v>
+      </c>
+      <c r="W10">
         <v>-0.2670381993335278</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>0.04340777710236215</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-0.2595088225930897</v>
-      </c>
-      <c r="Y10">
-        <v>-0.2581240242191751</v>
       </c>
       <c r="Z10">
         <v>-0.2581240242191751</v>
       </c>
       <c r="AA10">
+        <v>-0.2581240242191751</v>
+      </c>
+      <c r="AB10">
         <v>0.3105761202212499</v>
       </c>
     </row>
@@ -1307,21 +1339,24 @@
         <v>0.005833707862065501</v>
       </c>
       <c r="V11">
+        <v>-0.08394915654868355</v>
+      </c>
+      <c r="W11">
         <v>0.1867605695653934</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-0.113458032704001</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>0.1757756047522255</v>
-      </c>
-      <c r="Y11">
-        <v>0.2562629864983522</v>
       </c>
       <c r="Z11">
         <v>0.2562629864983522</v>
       </c>
       <c r="AA11">
+        <v>0.2562629864983522</v>
+      </c>
+      <c r="AB11">
         <v>-0.2723553262017137</v>
       </c>
     </row>
@@ -1390,21 +1425,24 @@
         <v>0.08655303655148099</v>
       </c>
       <c r="V12">
+        <v>0.1333959333661487</v>
+      </c>
+      <c r="W12">
         <v>-0.2172342492248364</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>0.1145559819239759</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-0.2048395619453555</v>
-      </c>
-      <c r="Y12">
-        <v>-0.2925133265286469</v>
       </c>
       <c r="Z12">
         <v>-0.2925133265286469</v>
       </c>
       <c r="AA12">
+        <v>-0.2925133265286469</v>
+      </c>
+      <c r="AB12">
         <v>0.3125259526675927</v>
       </c>
     </row>
@@ -1473,21 +1511,24 @@
         <v>-0.05517518853436524</v>
       </c>
       <c r="V13">
+        <v>-0.1636660422093451</v>
+      </c>
+      <c r="W13">
         <v>-0.1346009668532647</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-0.2336853830170639</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>-0.1449701853003804</v>
-      </c>
-      <c r="Y13">
-        <v>0.1462926320220514</v>
       </c>
       <c r="Z13">
         <v>0.1462926320220514</v>
       </c>
       <c r="AA13">
+        <v>0.1462926320220514</v>
+      </c>
+      <c r="AB13">
         <v>-0.03675514600117356</v>
       </c>
     </row>
@@ -1556,21 +1597,24 @@
         <v>-0.1121756102540822</v>
       </c>
       <c r="V14">
+        <v>0.1088620631300994</v>
+      </c>
+      <c r="W14">
         <v>0.1989854281876762</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>-0.05876753207235465</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>0.1927129152134672</v>
-      </c>
-      <c r="Y14">
-        <v>0.2185035389282103</v>
       </c>
       <c r="Z14">
         <v>0.2185035389282103</v>
       </c>
       <c r="AA14">
+        <v>0.2185035389282103</v>
+      </c>
+      <c r="AB14">
         <v>-0.2462622373808689</v>
       </c>
     </row>
@@ -1639,21 +1683,24 @@
         <v>-0.06975948909597428</v>
       </c>
       <c r="V15">
+        <v>0.08517104647575298</v>
+      </c>
+      <c r="W15">
         <v>0.1568556770569907</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>0.01434459480465678</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>0.1544126655825603</v>
-      </c>
-      <c r="Y15">
-        <v>0.1124841865156832</v>
       </c>
       <c r="Z15">
         <v>0.1124841865156832</v>
       </c>
       <c r="AA15">
+        <v>0.1124841865156832</v>
+      </c>
+      <c r="AB15">
         <v>-0.1472789699141999</v>
       </c>
     </row>
@@ -1722,21 +1769,24 @@
         <v>-0.1120421332637267</v>
       </c>
       <c r="V16">
+        <v>0.1095030401706723</v>
+      </c>
+      <c r="W16">
         <v>0.1993024726669089</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>-0.05602228799564749</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>0.1931987257790364</v>
-      </c>
-      <c r="Y16">
-        <v>0.2158769791319677</v>
       </c>
       <c r="Z16">
         <v>0.2158769791319677</v>
       </c>
       <c r="AA16">
+        <v>0.2158769791319677</v>
+      </c>
+      <c r="AB16">
         <v>-0.2444318995834648</v>
       </c>
     </row>
@@ -1805,21 +1855,24 @@
         <v>-0.03556098103505076</v>
       </c>
       <c r="V17">
+        <v>0.05861770948673281</v>
+      </c>
+      <c r="W17">
         <v>0.02221124464434825</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-0.1257951259286456</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>0.01469164365969326</v>
-      </c>
-      <c r="Y17">
-        <v>0.1497587271766938</v>
       </c>
       <c r="Z17">
         <v>0.1497587271766938</v>
       </c>
       <c r="AA17">
+        <v>0.1497587271766938</v>
+      </c>
+      <c r="AB17">
         <v>-0.1241568421850889</v>
       </c>
     </row>
@@ -1888,21 +1941,24 @@
         <v>-0.03556097845949869</v>
       </c>
       <c r="V18">
+        <v>0.05859472099984262</v>
+      </c>
+      <c r="W18">
         <v>0.02219694579011283</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-0.1257982119666841</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.0146767557847542</v>
-      </c>
-      <c r="Y18">
-        <v>0.1497492829285405</v>
       </c>
       <c r="Z18">
         <v>0.1497492829285405</v>
       </c>
       <c r="AA18">
+        <v>0.1497492829285405</v>
+      </c>
+      <c r="AB18">
         <v>-0.1241443045512297</v>
       </c>
     </row>
@@ -1971,21 +2027,24 @@
         <v>0.08974219051850511</v>
       </c>
       <c r="V19">
+        <v>-0.1125166322758717</v>
+      </c>
+      <c r="W19">
         <v>-0.1536022281255304</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.1046137714338123</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>-0.1445993923683179</v>
-      </c>
-      <c r="Y19">
-        <v>-0.2264377540702833</v>
       </c>
       <c r="Z19">
         <v>-0.2264377540702833</v>
       </c>
       <c r="AA19">
+        <v>-0.2264377540702833</v>
+      </c>
+      <c r="AB19">
         <v>0.2376473570794778</v>
       </c>
     </row>
@@ -2054,21 +2113,24 @@
         <v>0.006702318544333332</v>
       </c>
       <c r="V20">
+        <v>-0.1086680041459397</v>
+      </c>
+      <c r="W20">
         <v>0.01362471383069133</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.0593363436063429</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.01292069828631894</v>
-      </c>
-      <c r="Y20">
-        <v>-0.0150442467787647</v>
       </c>
       <c r="Z20">
         <v>-0.0150442467787647</v>
       </c>
       <c r="AA20">
+        <v>-0.0150442467787647</v>
+      </c>
+      <c r="AB20">
         <v>-0.01364749749168216</v>
       </c>
     </row>
@@ -2137,21 +2199,24 @@
         <v>-0.04299037809204792</v>
       </c>
       <c r="V21">
+        <v>-0.1517715240112431</v>
+      </c>
+      <c r="W21">
         <v>-0.1836175583160114</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-0.02101633168749064</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>-0.1799442741989019</v>
-      </c>
-      <c r="Y21">
-        <v>-0.09869110892050637</v>
       </c>
       <c r="Z21">
         <v>-0.09869110892050637</v>
       </c>
       <c r="AA21">
+        <v>-0.09869110892050637</v>
+      </c>
+      <c r="AB21">
         <v>0.1579377369677654</v>
       </c>
     </row>
@@ -2220,354 +2285,369 @@
         <v>1</v>
       </c>
       <c r="V22">
+        <v>0.1655271192906942</v>
+      </c>
+      <c r="W22">
         <v>-0.005940244508779067</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>-0.04051645138224425</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>-0.008983245369640439</v>
-      </c>
-      <c r="Y22">
-        <v>0.03117594219520951</v>
       </c>
       <c r="Z22">
         <v>0.03117594219520951</v>
       </c>
       <c r="AA22">
+        <v>0.03117594219520951</v>
+      </c>
+      <c r="AB22">
         <v>-0.01559576566774632</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>-0.09543255562676524</v>
+        <v>-0.174134135469051</v>
       </c>
       <c r="B23">
-        <v>-0.1591426335039474</v>
+        <v>-0.1656962533177042</v>
       </c>
       <c r="C23">
-        <v>0.07670133662989644</v>
+        <v>0.08609847288324797</v>
       </c>
       <c r="D23">
-        <v>-0.01490073422206828</v>
+        <v>0.05307975436287948</v>
       </c>
       <c r="E23">
-        <v>0.08717354648309859</v>
+        <v>0.06893311724680951</v>
       </c>
       <c r="F23">
-        <v>0.07121445498857891</v>
+        <v>-0.07727459993478918</v>
       </c>
       <c r="G23">
-        <v>-0.05387346334331043</v>
+        <v>-0.1426249368398512</v>
       </c>
       <c r="H23">
-        <v>0.04785949280837311</v>
+        <v>0.07115459891700728</v>
       </c>
       <c r="I23">
-        <v>-0.2670381993335278</v>
+        <v>0.03774814027712423</v>
       </c>
       <c r="J23">
-        <v>0.1867605695653934</v>
+        <v>-0.08394915654868355</v>
       </c>
       <c r="K23">
-        <v>-0.2172342492248364</v>
+        <v>0.1333959333661487</v>
       </c>
       <c r="L23">
-        <v>-0.1346009668532647</v>
+        <v>-0.1636660422093451</v>
       </c>
       <c r="M23">
-        <v>0.1989854281876762</v>
+        <v>0.1088620631300994</v>
       </c>
       <c r="N23">
-        <v>0.1568556770569907</v>
+        <v>0.08517104647575298</v>
       </c>
       <c r="O23">
-        <v>0.1993024726669089</v>
+        <v>0.1095030401706723</v>
       </c>
       <c r="P23">
-        <v>0.02221124464434825</v>
+        <v>0.05861770948673281</v>
       </c>
       <c r="Q23">
-        <v>0.02219694579011283</v>
+        <v>0.05859472099984262</v>
       </c>
       <c r="R23">
-        <v>-0.1536022281255304</v>
+        <v>-0.1125166322758717</v>
       </c>
       <c r="S23">
-        <v>0.01362471383069133</v>
+        <v>-0.1086680041459397</v>
       </c>
       <c r="T23">
-        <v>-0.1836175583160114</v>
+        <v>-0.1517715240112431</v>
       </c>
       <c r="U23">
-        <v>-0.005940244508779067</v>
+        <v>0.1655271192906942</v>
       </c>
       <c r="V23">
         <v>1</v>
       </c>
       <c r="W23">
-        <v>0.3521064146258778</v>
+        <v>0.09855586955124117</v>
       </c>
       <c r="X23">
-        <v>0.9980528573398034</v>
+        <v>0.02018299026954229</v>
       </c>
       <c r="Y23">
-        <v>0.4013309999581033</v>
+        <v>0.09908449994808491</v>
       </c>
       <c r="Z23">
-        <v>0.4013309999581033</v>
+        <v>0.04399463962067327</v>
       </c>
       <c r="AA23">
-        <v>-0.7732465092520669</v>
+        <v>0.04399463962067327</v>
+      </c>
+      <c r="AB23">
+        <v>-0.07587855259883214</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>-0.2643398713294653</v>
+        <v>-0.09543255562676524</v>
       </c>
       <c r="B24">
-        <v>-0.1987952080157433</v>
+        <v>-0.1591426335039474</v>
       </c>
       <c r="C24">
-        <v>-0.07543911265993458</v>
+        <v>0.07670133662989644</v>
       </c>
       <c r="D24">
-        <v>-0.1894596026927969</v>
+        <v>-0.01490073422206828</v>
       </c>
       <c r="E24">
-        <v>0.07072549864791562</v>
+        <v>0.08717354648309859</v>
       </c>
       <c r="F24">
-        <v>0.003355491492366705</v>
+        <v>0.07121445498857891</v>
       </c>
       <c r="G24">
-        <v>-0.172437725721664</v>
+        <v>-0.05387346334331043</v>
       </c>
       <c r="H24">
-        <v>-0.1139161182689552</v>
+        <v>0.04785949280837311</v>
       </c>
       <c r="I24">
-        <v>0.04340777710236215</v>
+        <v>-0.2670381993335278</v>
       </c>
       <c r="J24">
-        <v>-0.113458032704001</v>
+        <v>0.1867605695653934</v>
       </c>
       <c r="K24">
-        <v>0.1145559819239759</v>
+        <v>-0.2172342492248364</v>
       </c>
       <c r="L24">
-        <v>-0.2336853830170639</v>
+        <v>-0.1346009668532647</v>
       </c>
       <c r="M24">
-        <v>-0.05876753207235465</v>
+        <v>0.1989854281876762</v>
       </c>
       <c r="N24">
-        <v>0.01434459480465678</v>
+        <v>0.1568556770569907</v>
       </c>
       <c r="O24">
-        <v>-0.05602228799564749</v>
+        <v>0.1993024726669089</v>
       </c>
       <c r="P24">
-        <v>-0.1257951259286456</v>
+        <v>0.02221124464434825</v>
       </c>
       <c r="Q24">
-        <v>-0.1257982119666841</v>
+        <v>0.02219694579011283</v>
       </c>
       <c r="R24">
-        <v>0.1046137714338123</v>
+        <v>-0.1536022281255304</v>
       </c>
       <c r="S24">
-        <v>0.0593363436063429</v>
+        <v>0.01362471383069133</v>
       </c>
       <c r="T24">
-        <v>-0.02101633168749064</v>
+        <v>-0.1836175583160114</v>
       </c>
       <c r="U24">
-        <v>-0.04051645138224425</v>
+        <v>-0.005940244508779067</v>
       </c>
       <c r="V24">
-        <v>0.3521064146258778</v>
+        <v>0.09855586955124117</v>
       </c>
       <c r="W24">
         <v>1</v>
       </c>
       <c r="X24">
-        <v>0.394263316972649</v>
+        <v>0.3521064146258778</v>
       </c>
       <c r="Y24">
-        <v>-0.6606076551040662</v>
+        <v>0.9980528573398034</v>
       </c>
       <c r="Z24">
-        <v>-0.6606076551040662</v>
+        <v>0.4013309999581033</v>
       </c>
       <c r="AA24">
-        <v>0.2625452042503621</v>
+        <v>0.4013309999581033</v>
+      </c>
+      <c r="AB24">
+        <v>-0.7732465092520669</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>-0.1089546589025438</v>
+        <v>-0.2643398713294653</v>
       </c>
       <c r="B25">
-        <v>-0.1700495109113284</v>
+        <v>-0.1987952080157433</v>
       </c>
       <c r="C25">
-        <v>0.0727056175532355</v>
+        <v>-0.07543911265993458</v>
       </c>
       <c r="D25">
-        <v>-0.02524424325637959</v>
+        <v>-0.1894596026927969</v>
       </c>
       <c r="E25">
-        <v>0.09016995885482522</v>
+        <v>0.07072549864791562</v>
       </c>
       <c r="F25">
-        <v>0.06704117126479425</v>
+        <v>0.003355491492366705</v>
       </c>
       <c r="G25">
-        <v>-0.06218769743763182</v>
+        <v>-0.172437725721664</v>
       </c>
       <c r="H25">
-        <v>0.03921428804246685</v>
+        <v>-0.1139161182689552</v>
       </c>
       <c r="I25">
-        <v>-0.2595088225930897</v>
+        <v>0.04340777710236215</v>
       </c>
       <c r="J25">
-        <v>0.1757756047522255</v>
+        <v>-0.113458032704001</v>
       </c>
       <c r="K25">
-        <v>-0.2048395619453555</v>
+        <v>0.1145559819239759</v>
       </c>
       <c r="L25">
-        <v>-0.1449701853003804</v>
+        <v>-0.2336853830170639</v>
       </c>
       <c r="M25">
-        <v>0.1927129152134672</v>
+        <v>-0.05876753207235465</v>
       </c>
       <c r="N25">
-        <v>0.1544126655825603</v>
+        <v>0.01434459480465678</v>
       </c>
       <c r="O25">
-        <v>0.1931987257790364</v>
+        <v>-0.05602228799564749</v>
       </c>
       <c r="P25">
-        <v>0.01469164365969326</v>
+        <v>-0.1257951259286456</v>
       </c>
       <c r="Q25">
-        <v>0.0146767557847542</v>
+        <v>-0.1257982119666841</v>
       </c>
       <c r="R25">
-        <v>-0.1445993923683179</v>
+        <v>0.1046137714338123</v>
       </c>
       <c r="S25">
-        <v>0.01292069828631894</v>
+        <v>0.0593363436063429</v>
       </c>
       <c r="T25">
-        <v>-0.1799442741989019</v>
+        <v>-0.02101633168749064</v>
       </c>
       <c r="U25">
-        <v>-0.008983245369640439</v>
+        <v>-0.04051645138224425</v>
       </c>
       <c r="V25">
-        <v>0.9980528573398034</v>
+        <v>0.02018299026954229</v>
       </c>
       <c r="W25">
-        <v>0.394263316972649</v>
+        <v>0.3521064146258778</v>
       </c>
       <c r="X25">
         <v>1</v>
       </c>
       <c r="Y25">
-        <v>0.3602168507545853</v>
+        <v>0.394263316972649</v>
       </c>
       <c r="Z25">
-        <v>0.3602168507545853</v>
+        <v>-0.6606076551040662</v>
       </c>
       <c r="AA25">
-        <v>-0.7432812758557322</v>
+        <v>-0.6606076551040662</v>
+      </c>
+      <c r="AB25">
+        <v>0.2625452042503621</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.1716719671077754</v>
+        <v>-0.1089546589025438</v>
       </c>
       <c r="B26">
-        <v>0.09364236760453684</v>
+        <v>-0.1700495109113284</v>
       </c>
       <c r="C26">
-        <v>0.1272383496077271</v>
+        <v>0.0727056175532355</v>
       </c>
       <c r="D26">
-        <v>0.1645412226692577</v>
+        <v>-0.02524424325637959</v>
       </c>
       <c r="E26">
-        <v>-0.006316119886495727</v>
+        <v>0.09016995885482522</v>
       </c>
       <c r="F26">
-        <v>0.05935148474608827</v>
+        <v>0.06704117126479425</v>
       </c>
       <c r="G26">
-        <v>0.1209731348451576</v>
+        <v>-0.06218769743763182</v>
       </c>
       <c r="H26">
-        <v>0.1514674888088493</v>
+        <v>0.03921428804246685</v>
       </c>
       <c r="I26">
-        <v>-0.2581240242191751</v>
+        <v>-0.2595088225930897</v>
       </c>
       <c r="J26">
-        <v>0.2562629864983522</v>
+        <v>0.1757756047522255</v>
       </c>
       <c r="K26">
-        <v>-0.2925133265286469</v>
+        <v>-0.2048395619453555</v>
       </c>
       <c r="L26">
-        <v>0.1462926320220514</v>
+        <v>-0.1449701853003804</v>
       </c>
       <c r="M26">
-        <v>0.2185035389282103</v>
+        <v>0.1927129152134672</v>
       </c>
       <c r="N26">
-        <v>0.1124841865156832</v>
+        <v>0.1544126655825603</v>
       </c>
       <c r="O26">
-        <v>0.2158769791319677</v>
+        <v>0.1931987257790364</v>
       </c>
       <c r="P26">
-        <v>0.1497587271766938</v>
+        <v>0.01469164365969326</v>
       </c>
       <c r="Q26">
-        <v>0.1497492829285405</v>
+        <v>0.0146767557847542</v>
       </c>
       <c r="R26">
-        <v>-0.2264377540702833</v>
+        <v>-0.1445993923683179</v>
       </c>
       <c r="S26">
-        <v>-0.0150442467787647</v>
+        <v>0.01292069828631894</v>
       </c>
       <c r="T26">
-        <v>-0.09869110892050637</v>
+        <v>-0.1799442741989019</v>
       </c>
       <c r="U26">
-        <v>0.03117594219520951</v>
+        <v>-0.008983245369640439</v>
       </c>
       <c r="V26">
-        <v>0.4013309999581033</v>
+        <v>0.09908449994808491</v>
       </c>
       <c r="W26">
-        <v>-0.6606076551040662</v>
+        <v>0.9980528573398034</v>
       </c>
       <c r="X26">
-        <v>0.3602168507545853</v>
+        <v>0.394263316972649</v>
       </c>
       <c r="Y26">
         <v>1</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>0.3602168507545853</v>
       </c>
       <c r="AA26">
-        <v>-0.8790005084834919</v>
+        <v>0.3602168507545853</v>
+      </c>
+      <c r="AB26">
+        <v>-0.7432812758557322</v>
       </c>
     </row>
     <row r="27">
@@ -2635,104 +2715,196 @@
         <v>0.03117594219520951</v>
       </c>
       <c r="V27">
+        <v>0.04399463962067327</v>
+      </c>
+      <c r="W27">
         <v>0.4013309999581033</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-0.6606076551040662</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>0.3602168507545853</v>
-      </c>
-      <c r="Y27">
-        <v>1</v>
       </c>
       <c r="Z27">
         <v>1</v>
       </c>
       <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
         <v>-0.8790005084834919</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
+        <v>0.1716719671077754</v>
+      </c>
+      <c r="B28">
+        <v>0.09364236760453684</v>
+      </c>
+      <c r="C28">
+        <v>0.1272383496077271</v>
+      </c>
+      <c r="D28">
+        <v>0.1645412226692577</v>
+      </c>
+      <c r="E28">
+        <v>-0.006316119886495727</v>
+      </c>
+      <c r="F28">
+        <v>0.05935148474608827</v>
+      </c>
+      <c r="G28">
+        <v>0.1209731348451576</v>
+      </c>
+      <c r="H28">
+        <v>0.1514674888088493</v>
+      </c>
+      <c r="I28">
+        <v>-0.2581240242191751</v>
+      </c>
+      <c r="J28">
+        <v>0.2562629864983522</v>
+      </c>
+      <c r="K28">
+        <v>-0.2925133265286469</v>
+      </c>
+      <c r="L28">
+        <v>0.1462926320220514</v>
+      </c>
+      <c r="M28">
+        <v>0.2185035389282103</v>
+      </c>
+      <c r="N28">
+        <v>0.1124841865156832</v>
+      </c>
+      <c r="O28">
+        <v>0.2158769791319677</v>
+      </c>
+      <c r="P28">
+        <v>0.1497587271766938</v>
+      </c>
+      <c r="Q28">
+        <v>0.1497492829285405</v>
+      </c>
+      <c r="R28">
+        <v>-0.2264377540702833</v>
+      </c>
+      <c r="S28">
+        <v>-0.0150442467787647</v>
+      </c>
+      <c r="T28">
+        <v>-0.09869110892050637</v>
+      </c>
+      <c r="U28">
+        <v>0.03117594219520951</v>
+      </c>
+      <c r="V28">
+        <v>0.04399463962067327</v>
+      </c>
+      <c r="W28">
+        <v>0.4013309999581033</v>
+      </c>
+      <c r="X28">
+        <v>-0.6606076551040662</v>
+      </c>
+      <c r="Y28">
+        <v>0.3602168507545853</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>-0.8790005084834919</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
         <v>-0.07640776938761124</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>0.005762191360871495</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>-0.1260631980570945</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>-0.1094341536746082</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>-0.03630417427699904</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>-0.07916312637738215</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>-0.05025281406071956</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>-0.1356767511585134</v>
       </c>
-      <c r="I28">
+      <c r="I29">
         <v>0.3105761202212499</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>-0.2723553262017137</v>
       </c>
-      <c r="K28">
+      <c r="K29">
         <v>0.3125259526675927</v>
       </c>
-      <c r="L28">
+      <c r="L29">
         <v>-0.03675514600117356</v>
       </c>
-      <c r="M28">
+      <c r="M29">
         <v>-0.2462622373808689</v>
       </c>
-      <c r="N28">
+      <c r="N29">
         <v>-0.1472789699141999</v>
       </c>
-      <c r="O28">
+      <c r="O29">
         <v>-0.2444318995834648</v>
       </c>
-      <c r="P28">
+      <c r="P29">
         <v>-0.1241568421850889</v>
       </c>
-      <c r="Q28">
+      <c r="Q29">
         <v>-0.1241443045512297</v>
       </c>
-      <c r="R28">
+      <c r="R29">
         <v>0.2376473570794778</v>
       </c>
-      <c r="S28">
+      <c r="S29">
         <v>-0.01364749749168216</v>
       </c>
-      <c r="T28">
+      <c r="T29">
         <v>0.1579377369677654</v>
       </c>
-      <c r="U28">
+      <c r="U29">
         <v>-0.01559576566774632</v>
       </c>
-      <c r="V28">
+      <c r="V29">
+        <v>-0.07587855259883214</v>
+      </c>
+      <c r="W29">
         <v>-0.7732465092520669</v>
       </c>
-      <c r="W28">
+      <c r="X29">
         <v>0.2625452042503621</v>
       </c>
-      <c r="X28">
+      <c r="Y29">
         <v>-0.7432812758557322</v>
       </c>
-      <c r="Y28">
+      <c r="Z29">
         <v>-0.8790005084834919</v>
       </c>
-      <c r="Z28">
+      <c r="AA29">
         <v>-0.8790005084834919</v>
       </c>
-      <c r="AA28">
+      <c r="AB29">
         <v>1</v>
       </c>
     </row>
@@ -2743,7 +2915,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA28"/>
+  <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2857,30 +3029,35 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>Inflammation</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>KidneyGSH</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>KidneyGSSG</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>KidneyTotalGSH</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>KidneyGSHGSSGRatio</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Kidney2GSHGSSGRatio</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>KidneyEhGSSG2GSH</t>
         </is>
@@ -2948,21 +3125,24 @@
         <v>0.110538991734245</v>
       </c>
       <c r="V2">
+        <v>0.005388449739510026</v>
+      </c>
+      <c r="W2">
         <v>0.1292902145358792</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1.969940717727603e-05</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>0.08308686912077734</v>
-      </c>
-      <c r="Y2">
-        <v>0.006089956448722456</v>
       </c>
       <c r="Z2">
         <v>0.006089956448722456</v>
       </c>
       <c r="AA2">
+        <v>0.006089956448722456</v>
+      </c>
+      <c r="AB2">
         <v>0.2249357343536751</v>
       </c>
     </row>
@@ -3028,21 +3208,24 @@
         <v>0.523515443532474</v>
       </c>
       <c r="V3">
+        <v>0.001985596575885484</v>
+      </c>
+      <c r="W3">
         <v>0.003035418197689932</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0002022307493865227</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.001523412274941904</v>
-      </c>
-      <c r="Y3">
-        <v>0.08241619841297587</v>
       </c>
       <c r="Z3">
         <v>0.08241619841297587</v>
       </c>
       <c r="AA3">
+        <v>0.08241619841297587</v>
+      </c>
+      <c r="AB3">
         <v>0.9150742595879411</v>
       </c>
     </row>
@@ -3108,21 +3291,24 @@
         <v>0.9467885781750613</v>
       </c>
       <c r="V4">
+        <v>0.1119784458760131</v>
+      </c>
+      <c r="W4">
         <v>0.1575784139997523</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0.1645474737013033</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>0.1804278578538032</v>
-      </c>
-      <c r="Y4">
-        <v>0.0187461578160133</v>
       </c>
       <c r="Z4">
         <v>0.0187461578160133</v>
       </c>
       <c r="AA4">
+        <v>0.0187461578160133</v>
+      </c>
+      <c r="AB4">
         <v>0.01987730691097611</v>
       </c>
     </row>
@@ -3188,21 +3374,24 @@
         <v>0.6886196756594791</v>
       </c>
       <c r="V5">
+        <v>0.3284352251831795</v>
+      </c>
+      <c r="W5">
         <v>0.7842695891347067</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>0.000443976650610578</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>0.6427619911782965</v>
-      </c>
-      <c r="Y5">
-        <v>0.002337754357119248</v>
       </c>
       <c r="Z5">
         <v>0.002337754357119248</v>
       </c>
       <c r="AA5">
+        <v>0.002337754357119248</v>
+      </c>
+      <c r="AB5">
         <v>0.04374825080269451</v>
       </c>
     </row>
@@ -3268,21 +3457,24 @@
         <v>0.677514161159356</v>
       </c>
       <c r="V6">
+        <v>0.2048366746151329</v>
+      </c>
+      <c r="W6">
         <v>0.1091206331934611</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>0.1939398161897692</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>0.09742837143327998</v>
-      </c>
-      <c r="Y6">
-        <v>0.90776054857611</v>
       </c>
       <c r="Z6">
         <v>0.90776054857611</v>
       </c>
       <c r="AA6">
+        <v>0.90776054857611</v>
+      </c>
+      <c r="AB6">
         <v>0.5052951132541779</v>
       </c>
     </row>
@@ -3348,21 +3540,24 @@
         <v>0.9228371561727764</v>
       </c>
       <c r="V7">
+        <v>0.1569455279984808</v>
+      </c>
+      <c r="W7">
         <v>0.1928576955842833</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>0.9511377050613485</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>0.2203173328667833</v>
-      </c>
-      <c r="Y7">
-        <v>0.2779956458006172</v>
       </c>
       <c r="Z7">
         <v>0.2779956458006172</v>
       </c>
       <c r="AA7">
+        <v>0.2779956458006172</v>
+      </c>
+      <c r="AB7">
         <v>0.14763112929181</v>
       </c>
     </row>
@@ -3428,21 +3623,24 @@
         <v>0.7917085772705013</v>
       </c>
       <c r="V8">
+        <v>0.007884574595334648</v>
+      </c>
+      <c r="W8">
         <v>0.318401430374897</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>0.001302704843999747</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>0.2493176011176246</v>
-      </c>
-      <c r="Y8">
-        <v>0.02463491332367562</v>
       </c>
       <c r="Z8">
         <v>0.02463491332367562</v>
       </c>
       <c r="AA8">
+        <v>0.02463491332367562</v>
+      </c>
+      <c r="AB8">
         <v>0.3520578542478403</v>
       </c>
     </row>
@@ -3508,21 +3706,24 @@
         <v>0.5029283547134034</v>
       </c>
       <c r="V9">
+        <v>0.1966050596403957</v>
+      </c>
+      <c r="W9">
         <v>0.3854323018220818</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>0.03831870126194303</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>0.4770743119117777</v>
-      </c>
-      <c r="Y9">
-        <v>0.005758354268619925</v>
       </c>
       <c r="Z9">
         <v>0.005758354268619925</v>
       </c>
       <c r="AA9">
+        <v>0.005758354268619925</v>
+      </c>
+      <c r="AB9">
         <v>0.01349175128204472</v>
       </c>
     </row>
@@ -3588,21 +3789,24 @@
         <v>0.04268893261378692</v>
       </c>
       <c r="V10">
+        <v>0.4943726777176765</v>
+      </c>
+      <c r="W10">
         <v>8.555287216438501e-07</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>0.4319144607158965</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>1.766646417600271e-06</v>
-      </c>
-      <c r="Y10">
-        <v>2.013805749712105e-06</v>
       </c>
       <c r="Z10">
         <v>2.013805749712105e-06</v>
       </c>
       <c r="AA10">
+        <v>2.013805749712105e-06</v>
+      </c>
+      <c r="AB10">
         <v>8.232086567971919e-09</v>
       </c>
     </row>
@@ -3668,21 +3872,24 @@
         <v>0.9152838812135295</v>
       </c>
       <c r="V11">
+        <v>0.1257251558483341</v>
+      </c>
+      <c r="W11">
         <v>0.000613822501299488</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>0.03851646040148182</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>0.001278985204954397</v>
-      </c>
-      <c r="Y11">
-        <v>2.156992431334714e-06</v>
       </c>
       <c r="Z11">
         <v>2.156992431334714e-06</v>
       </c>
       <c r="AA11">
+        <v>2.156992431334714e-06</v>
+      </c>
+      <c r="AB11">
         <v>4.486656544067102e-07</v>
       </c>
     </row>
@@ -3748,21 +3955,24 @@
         <v>0.1229000515273513</v>
       </c>
       <c r="V12">
+        <v>0.01730939609768534</v>
+      </c>
+      <c r="W12">
         <v>9.409946709704187e-05</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>0.04120050339947312</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>0.0002355332602399507</v>
-      </c>
-      <c r="Y12">
-        <v>1.082147822462076e-07</v>
       </c>
       <c r="Z12">
         <v>1.082147822462076e-07</v>
       </c>
       <c r="AA12">
+        <v>1.082147822462076e-07</v>
+      </c>
+      <c r="AB12">
         <v>1.237646607421539e-08</v>
       </c>
     </row>
@@ -3828,21 +4038,24 @@
         <v>0.305423509402146</v>
       </c>
       <c r="V13">
+        <v>0.002258376457255906</v>
+      </c>
+      <c r="W13">
         <v>0.01233453583054533</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>1.15649769663051e-05</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>0.006992697764747424</v>
-      </c>
-      <c r="Y13">
-        <v>0.006487576749523161</v>
       </c>
       <c r="Z13">
         <v>0.006487576749523161</v>
       </c>
       <c r="AA13">
+        <v>0.006487576749523161</v>
+      </c>
+      <c r="AB13">
         <v>0.4962203167169945</v>
       </c>
     </row>
@@ -3908,21 +4121,24 @@
         <v>0.03701278315917955</v>
       </c>
       <c r="V14">
+        <v>0.04331147900212073</v>
+      </c>
+      <c r="W14">
         <v>0.0002036801096787499</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>0.2770599277398187</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>0.0003243443882876562</v>
-      </c>
-      <c r="Y14">
-        <v>4.362680241198902e-05</v>
       </c>
       <c r="Z14">
         <v>4.362680241198902e-05</v>
       </c>
       <c r="AA14">
+        <v>4.362680241198902e-05</v>
+      </c>
+      <c r="AB14">
         <v>3.796236321740309e-06</v>
       </c>
     </row>
@@ -3988,21 +4204,24 @@
         <v>0.194849353529301</v>
       </c>
       <c r="V15">
+        <v>0.1137832484616574</v>
+      </c>
+      <c r="W15">
         <v>0.003489175734747718</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>0.7906353154103223</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>0.004041031431565978</v>
-      </c>
-      <c r="Y15">
-        <v>0.03676623639974852</v>
       </c>
       <c r="Z15">
         <v>0.03676623639974852</v>
       </c>
       <c r="AA15">
+        <v>0.03676623639974852</v>
+      </c>
+      <c r="AB15">
         <v>0.006132378366797031</v>
       </c>
     </row>
@@ -4068,21 +4287,24 @@
         <v>0.03723977548783219</v>
       </c>
       <c r="V16">
+        <v>0.04208654314508853</v>
+      </c>
+      <c r="W16">
         <v>0.0001988700881763172</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>0.30015989643121</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>0.0003130254749963424</v>
-      </c>
-      <c r="Y16">
-        <v>5.412756078193581e-05</v>
       </c>
       <c r="Z16">
         <v>5.412756078193581e-05</v>
       </c>
       <c r="AA16">
+        <v>5.412756078193581e-05</v>
+      </c>
+      <c r="AB16">
         <v>4.500966554354946e-06</v>
       </c>
     </row>
@@ -4148,21 +4370,24 @@
         <v>0.5097112664527845</v>
       </c>
       <c r="V17">
+        <v>0.2775860565911428</v>
+      </c>
+      <c r="W17">
         <v>0.6814330276730149</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.01959895184396854</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>0.7859970855522911</v>
-      </c>
-      <c r="Y17">
-        <v>0.005382345370300579</v>
       </c>
       <c r="Z17">
         <v>0.005382345370300579</v>
       </c>
       <c r="AA17">
+        <v>0.005382345370300579</v>
+      </c>
+      <c r="AB17">
         <v>0.02126177494570669</v>
       </c>
     </row>
@@ -4228,21 +4453,24 @@
         <v>0.5097112971289524</v>
       </c>
       <c r="V18">
+        <v>0.2777748618556357</v>
+      </c>
+      <c r="W18">
         <v>0.6816269054702992</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.01959592947351374</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.7862087008121257</v>
-      </c>
-      <c r="Y18">
-        <v>0.005385291300507689</v>
       </c>
       <c r="Z18">
         <v>0.005385291300507689</v>
       </c>
       <c r="AA18">
+        <v>0.005385291300507689</v>
+      </c>
+      <c r="AB18">
         <v>0.02127495813264479</v>
       </c>
     </row>
@@ -4308,21 +4536,24 @@
         <v>0.09558903180005984</v>
       </c>
       <c r="V19">
+        <v>0.03671162533125716</v>
+      </c>
+      <c r="W19">
         <v>0.004297022346441359</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.05255538505869328</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>0.007225046600035867</v>
-      </c>
-      <c r="Y19">
-        <v>2.23814495068364e-05</v>
       </c>
       <c r="Z19">
         <v>2.23814495068364e-05</v>
       </c>
       <c r="AA19">
+        <v>2.23814495068364e-05</v>
+      </c>
+      <c r="AB19">
         <v>8.363833852165214e-06</v>
       </c>
     </row>
@@ -4388,21 +4619,24 @@
         <v>0.9011406298846167</v>
       </c>
       <c r="V20">
+        <v>0.04338208228709939</v>
+      </c>
+      <c r="W20">
         <v>0.8012012990220008</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.2724286657801158</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.8112754308542252</v>
-      </c>
-      <c r="Y20">
-        <v>0.7809898419213468</v>
       </c>
       <c r="Z20">
         <v>0.7809898419213468</v>
       </c>
       <c r="AA20">
+        <v>0.7809898419213468</v>
+      </c>
+      <c r="AB20">
         <v>0.800875815004745</v>
       </c>
     </row>
@@ -4468,21 +4702,24 @@
         <v>0.425368523968054</v>
       </c>
       <c r="V21">
+        <v>0.004664918729635259</v>
+      </c>
+      <c r="W21">
         <v>0.0006208346701812584</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.6977059786126887</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.00080018966353812</v>
-      </c>
-      <c r="Y21">
-        <v>0.06751197078756266</v>
       </c>
       <c r="Z21">
         <v>0.06751197078756266</v>
       </c>
       <c r="AA21">
+        <v>0.06751197078756266</v>
+      </c>
+      <c r="AB21">
         <v>0.003312950363056899</v>
       </c>
     </row>
@@ -4548,341 +4785,356 @@
         <v>0.425368523968054</v>
       </c>
       <c r="V22">
+        <v>0.00200711528938502</v>
+      </c>
+      <c r="W22">
         <v>0.9124603842909949</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.4531724772561696</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.8679569314964741</v>
-      </c>
-      <c r="Y22">
-        <v>0.5638677502343075</v>
       </c>
       <c r="Z22">
         <v>0.5638677502343075</v>
       </c>
       <c r="AA22">
+        <v>0.5638677502343075</v>
+      </c>
+      <c r="AB22">
         <v>0.7728532595654056</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.1292902145358792</v>
+        <v>0.005388449739510026</v>
       </c>
       <c r="B23">
-        <v>0.003035418197689932</v>
+        <v>0.001985596575885484</v>
       </c>
       <c r="C23">
-        <v>0.1575784139997523</v>
+        <v>0.1119784458760131</v>
       </c>
       <c r="D23">
-        <v>0.7842695891347067</v>
+        <v>0.3284352251831795</v>
       </c>
       <c r="E23">
-        <v>0.1091206331934611</v>
+        <v>0.2048366746151329</v>
       </c>
       <c r="F23">
-        <v>0.1928576955842833</v>
+        <v>0.1569455279984808</v>
       </c>
       <c r="G23">
-        <v>0.318401430374897</v>
+        <v>0.007884574595334648</v>
       </c>
       <c r="H23">
-        <v>0.3854323018220818</v>
+        <v>0.1966050596403957</v>
       </c>
       <c r="I23">
-        <v>8.555287216438501e-07</v>
+        <v>0.4943726777176765</v>
       </c>
       <c r="J23">
-        <v>0.000613822501299488</v>
+        <v>0.1257251558483341</v>
       </c>
       <c r="K23">
-        <v>9.409946709704187e-05</v>
+        <v>0.01730939609768534</v>
       </c>
       <c r="L23">
-        <v>0.01233453583054533</v>
+        <v>0.002258376457255906</v>
       </c>
       <c r="M23">
-        <v>0.0002036801096787499</v>
+        <v>0.04331147900212073</v>
       </c>
       <c r="N23">
-        <v>0.003489175734747718</v>
+        <v>0.1137832484616574</v>
       </c>
       <c r="O23">
-        <v>0.0001988700881763172</v>
+        <v>0.04208654314508853</v>
       </c>
       <c r="P23">
-        <v>0.6814330276730149</v>
+        <v>0.2775860565911428</v>
       </c>
       <c r="Q23">
-        <v>0.6816269054702992</v>
+        <v>0.2777748618556357</v>
       </c>
       <c r="R23">
-        <v>0.004297022346441359</v>
+        <v>0.03671162533125716</v>
       </c>
       <c r="S23">
-        <v>0.8012012990220008</v>
+        <v>0.04338208228709939</v>
       </c>
       <c r="T23">
-        <v>0.0006208346701812584</v>
+        <v>0.004664918729635259</v>
       </c>
       <c r="U23">
-        <v>0.9124603842909949</v>
+        <v>0.00200711528938502</v>
       </c>
       <c r="W23">
-        <v>1.659827830735594e-11</v>
+        <v>0.06789050827400378</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>0.7091378889982782</v>
       </c>
       <c r="Y23">
-        <v>8.881784197001252e-15</v>
+        <v>0.06642068143974189</v>
       </c>
       <c r="Z23">
-        <v>8.881784197001252e-15</v>
+        <v>0.4159870937797254</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>0.4159870937797254</v>
+      </c>
+      <c r="AB23">
+        <v>0.1602473352843456</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1.969940717727603e-05</v>
+        <v>0.1292902145358792</v>
       </c>
       <c r="B24">
-        <v>0.0002022307493865227</v>
+        <v>0.003035418197689932</v>
       </c>
       <c r="C24">
-        <v>0.1645474737013033</v>
+        <v>0.1575784139997523</v>
       </c>
       <c r="D24">
-        <v>0.000443976650610578</v>
+        <v>0.7842695891347067</v>
       </c>
       <c r="E24">
-        <v>0.1939398161897692</v>
+        <v>0.1091206331934611</v>
       </c>
       <c r="F24">
-        <v>0.9511377050613485</v>
+        <v>0.1928576955842833</v>
       </c>
       <c r="G24">
-        <v>0.001302704843999747</v>
+        <v>0.318401430374897</v>
       </c>
       <c r="H24">
-        <v>0.03831870126194303</v>
+        <v>0.3854323018220818</v>
       </c>
       <c r="I24">
-        <v>0.4319144607158965</v>
+        <v>8.555287216438501e-07</v>
       </c>
       <c r="J24">
-        <v>0.03851646040148182</v>
+        <v>0.000613822501299488</v>
       </c>
       <c r="K24">
-        <v>0.04120050339947312</v>
+        <v>9.409946709704187e-05</v>
       </c>
       <c r="L24">
-        <v>1.15649769663051e-05</v>
+        <v>0.01233453583054533</v>
       </c>
       <c r="M24">
-        <v>0.2770599277398187</v>
+        <v>0.0002036801096787499</v>
       </c>
       <c r="N24">
-        <v>0.7906353154103223</v>
+        <v>0.003489175734747718</v>
       </c>
       <c r="O24">
-        <v>0.30015989643121</v>
+        <v>0.0001988700881763172</v>
       </c>
       <c r="P24">
-        <v>0.01959895184396854</v>
+        <v>0.6814330276730149</v>
       </c>
       <c r="Q24">
-        <v>0.01959592947351374</v>
+        <v>0.6816269054702992</v>
       </c>
       <c r="R24">
-        <v>0.05255538505869328</v>
+        <v>0.004297022346441359</v>
       </c>
       <c r="S24">
-        <v>0.2724286657801158</v>
+        <v>0.8012012990220008</v>
       </c>
       <c r="T24">
-        <v>0.6977059786126887</v>
+        <v>0.0006208346701812584</v>
       </c>
       <c r="U24">
-        <v>0.4531724772561696</v>
+        <v>0.9124603842909949</v>
       </c>
       <c r="V24">
+        <v>0.06789050827400378</v>
+      </c>
+      <c r="X24">
         <v>1.659827830735594e-11</v>
-      </c>
-      <c r="X24">
-        <v>2.797762022055394e-14</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
+        <v>8.881784197001252e-15</v>
+      </c>
+      <c r="AA24">
+        <v>8.881784197001252e-15</v>
+      </c>
+      <c r="AB24">
         <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>7.579539320623496e-07</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.08308686912077734</v>
+        <v>1.969940717727603e-05</v>
       </c>
       <c r="B25">
-        <v>0.001523412274941904</v>
+        <v>0.0002022307493865227</v>
       </c>
       <c r="C25">
-        <v>0.1804278578538032</v>
+        <v>0.1645474737013033</v>
       </c>
       <c r="D25">
-        <v>0.6427619911782965</v>
+        <v>0.000443976650610578</v>
       </c>
       <c r="E25">
-        <v>0.09742837143327998</v>
+        <v>0.1939398161897692</v>
       </c>
       <c r="F25">
-        <v>0.2203173328667833</v>
+        <v>0.9511377050613485</v>
       </c>
       <c r="G25">
-        <v>0.2493176011176246</v>
+        <v>0.001302704843999747</v>
       </c>
       <c r="H25">
-        <v>0.4770743119117777</v>
+        <v>0.03831870126194303</v>
       </c>
       <c r="I25">
-        <v>1.766646417600271e-06</v>
+        <v>0.4319144607158965</v>
       </c>
       <c r="J25">
-        <v>0.001278985204954397</v>
+        <v>0.03851646040148182</v>
       </c>
       <c r="K25">
-        <v>0.0002355332602399507</v>
+        <v>0.04120050339947312</v>
       </c>
       <c r="L25">
-        <v>0.006992697764747424</v>
+        <v>1.15649769663051e-05</v>
       </c>
       <c r="M25">
-        <v>0.0003243443882876562</v>
+        <v>0.2770599277398187</v>
       </c>
       <c r="N25">
-        <v>0.004041031431565978</v>
+        <v>0.7906353154103223</v>
       </c>
       <c r="O25">
-        <v>0.0003130254749963424</v>
+        <v>0.30015989643121</v>
       </c>
       <c r="P25">
-        <v>0.7859970855522911</v>
+        <v>0.01959895184396854</v>
       </c>
       <c r="Q25">
-        <v>0.7862087008121257</v>
+        <v>0.01959592947351374</v>
       </c>
       <c r="R25">
-        <v>0.007225046600035867</v>
+        <v>0.05255538505869328</v>
       </c>
       <c r="S25">
-        <v>0.8112754308542252</v>
+        <v>0.2724286657801158</v>
       </c>
       <c r="T25">
-        <v>0.00080018966353812</v>
+        <v>0.6977059786126887</v>
       </c>
       <c r="U25">
-        <v>0.8679569314964741</v>
+        <v>0.4531724772561696</v>
       </c>
       <c r="V25">
+        <v>0.7091378889982782</v>
+      </c>
+      <c r="W25">
+        <v>1.659827830735594e-11</v>
+      </c>
+      <c r="Y25">
+        <v>2.797762022055394e-14</v>
+      </c>
+      <c r="Z25">
         <v>0</v>
-      </c>
-      <c r="W25">
-        <v>2.797762022055394e-14</v>
-      </c>
-      <c r="Y25">
-        <v>5.221156840207186e-12</v>
-      </c>
-      <c r="Z25">
-        <v>5.221156840207186e-12</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
+      <c r="AB25">
+        <v>7.579539320623496e-07</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.006089956448722456</v>
+        <v>0.08308686912077734</v>
       </c>
       <c r="B26">
-        <v>0.08241619841297587</v>
+        <v>0.001523412274941904</v>
       </c>
       <c r="C26">
-        <v>0.0187461578160133</v>
+        <v>0.1804278578538032</v>
       </c>
       <c r="D26">
-        <v>0.002337754357119248</v>
+        <v>0.6427619911782965</v>
       </c>
       <c r="E26">
-        <v>0.90776054857611</v>
+        <v>0.09742837143327998</v>
       </c>
       <c r="F26">
-        <v>0.2779956458006172</v>
+        <v>0.2203173328667833</v>
       </c>
       <c r="G26">
-        <v>0.02463491332367562</v>
+        <v>0.2493176011176246</v>
       </c>
       <c r="H26">
-        <v>0.005758354268619925</v>
+        <v>0.4770743119117777</v>
       </c>
       <c r="I26">
-        <v>2.013805749712105e-06</v>
+        <v>1.766646417600271e-06</v>
       </c>
       <c r="J26">
-        <v>2.156992431334714e-06</v>
+        <v>0.001278985204954397</v>
       </c>
       <c r="K26">
-        <v>1.082147822462076e-07</v>
+        <v>0.0002355332602399507</v>
       </c>
       <c r="L26">
-        <v>0.006487576749523161</v>
+        <v>0.006992697764747424</v>
       </c>
       <c r="M26">
-        <v>4.362680241198902e-05</v>
+        <v>0.0003243443882876562</v>
       </c>
       <c r="N26">
-        <v>0.03676623639974852</v>
+        <v>0.004041031431565978</v>
       </c>
       <c r="O26">
-        <v>5.412756078193581e-05</v>
+        <v>0.0003130254749963424</v>
       </c>
       <c r="P26">
-        <v>0.005382345370300579</v>
+        <v>0.7859970855522911</v>
       </c>
       <c r="Q26">
-        <v>0.005385291300507689</v>
+        <v>0.7862087008121257</v>
       </c>
       <c r="R26">
-        <v>2.23814495068364e-05</v>
+        <v>0.007225046600035867</v>
       </c>
       <c r="S26">
-        <v>0.7809898419213468</v>
+        <v>0.8112754308542252</v>
       </c>
       <c r="T26">
-        <v>0.06751197078756266</v>
+        <v>0.00080018966353812</v>
       </c>
       <c r="U26">
-        <v>0.5638677502343075</v>
+        <v>0.8679569314964741</v>
       </c>
       <c r="V26">
-        <v>8.881784197001252e-15</v>
+        <v>0.06642068143974189</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
+        <v>2.797762022055394e-14</v>
+      </c>
+      <c r="Z26">
         <v>5.221156840207186e-12</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
       <c r="AA26">
+        <v>5.221156840207186e-12</v>
+      </c>
+      <c r="AB26">
         <v>0</v>
       </c>
     </row>
@@ -4951,98 +5203,187 @@
         <v>0.5638677502343075</v>
       </c>
       <c r="V27">
+        <v>0.4159870937797254</v>
+      </c>
+      <c r="W27">
         <v>8.881784197001252e-15</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>5.221156840207186e-12</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.2249357343536751</v>
+        <v>0.006089956448722456</v>
       </c>
       <c r="B28">
-        <v>0.9150742595879411</v>
+        <v>0.08241619841297587</v>
       </c>
       <c r="C28">
-        <v>0.01987730691097611</v>
+        <v>0.0187461578160133</v>
       </c>
       <c r="D28">
-        <v>0.04374825080269451</v>
+        <v>0.002337754357119248</v>
       </c>
       <c r="E28">
-        <v>0.5052951132541779</v>
+        <v>0.90776054857611</v>
       </c>
       <c r="F28">
-        <v>0.14763112929181</v>
+        <v>0.2779956458006172</v>
       </c>
       <c r="G28">
-        <v>0.3520578542478403</v>
+        <v>0.02463491332367562</v>
       </c>
       <c r="H28">
-        <v>0.01349175128204472</v>
+        <v>0.005758354268619925</v>
       </c>
       <c r="I28">
-        <v>8.232086567971919e-09</v>
+        <v>2.013805749712105e-06</v>
       </c>
       <c r="J28">
-        <v>4.486656544067102e-07</v>
+        <v>2.156992431334714e-06</v>
       </c>
       <c r="K28">
-        <v>1.237646607421539e-08</v>
+        <v>1.082147822462076e-07</v>
       </c>
       <c r="L28">
-        <v>0.4962203167169945</v>
+        <v>0.006487576749523161</v>
       </c>
       <c r="M28">
-        <v>3.796236321740309e-06</v>
+        <v>4.362680241198902e-05</v>
       </c>
       <c r="N28">
-        <v>0.006132378366797031</v>
+        <v>0.03676623639974852</v>
       </c>
       <c r="O28">
-        <v>4.500966554354946e-06</v>
+        <v>5.412756078193581e-05</v>
       </c>
       <c r="P28">
-        <v>0.02126177494570669</v>
+        <v>0.005382345370300579</v>
       </c>
       <c r="Q28">
-        <v>0.02127495813264479</v>
+        <v>0.005385291300507689</v>
       </c>
       <c r="R28">
-        <v>8.363833852165214e-06</v>
+        <v>2.23814495068364e-05</v>
       </c>
       <c r="S28">
-        <v>0.800875815004745</v>
+        <v>0.7809898419213468</v>
       </c>
       <c r="T28">
-        <v>0.003312950363056899</v>
+        <v>0.06751197078756266</v>
       </c>
       <c r="U28">
-        <v>0.7728532595654056</v>
+        <v>0.5638677502343075</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>0.4159870937797254</v>
       </c>
       <c r="W28">
-        <v>7.579539320623496e-07</v>
+        <v>8.881784197001252e-15</v>
       </c>
       <c r="X28">
         <v>0</v>
       </c>
       <c r="Y28">
+        <v>5.221156840207186e-12</v>
+      </c>
+      <c r="Z28">
         <v>0</v>
       </c>
-      <c r="Z28">
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.2249357343536751</v>
+      </c>
+      <c r="B29">
+        <v>0.9150742595879411</v>
+      </c>
+      <c r="C29">
+        <v>0.01987730691097611</v>
+      </c>
+      <c r="D29">
+        <v>0.04374825080269451</v>
+      </c>
+      <c r="E29">
+        <v>0.5052951132541779</v>
+      </c>
+      <c r="F29">
+        <v>0.14763112929181</v>
+      </c>
+      <c r="G29">
+        <v>0.3520578542478403</v>
+      </c>
+      <c r="H29">
+        <v>0.01349175128204472</v>
+      </c>
+      <c r="I29">
+        <v>8.232086567971919e-09</v>
+      </c>
+      <c r="J29">
+        <v>4.486656544067102e-07</v>
+      </c>
+      <c r="K29">
+        <v>1.237646607421539e-08</v>
+      </c>
+      <c r="L29">
+        <v>0.4962203167169945</v>
+      </c>
+      <c r="M29">
+        <v>3.796236321740309e-06</v>
+      </c>
+      <c r="N29">
+        <v>0.006132378366797031</v>
+      </c>
+      <c r="O29">
+        <v>4.500966554354946e-06</v>
+      </c>
+      <c r="P29">
+        <v>0.02126177494570669</v>
+      </c>
+      <c r="Q29">
+        <v>0.02127495813264479</v>
+      </c>
+      <c r="R29">
+        <v>8.363833852165214e-06</v>
+      </c>
+      <c r="S29">
+        <v>0.800875815004745</v>
+      </c>
+      <c r="T29">
+        <v>0.003312950363056899</v>
+      </c>
+      <c r="U29">
+        <v>0.7728532595654056</v>
+      </c>
+      <c r="V29">
+        <v>0.1602473352843456</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>7.579539320623496e-07</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
         <v>0</v>
       </c>
     </row>
